--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2411,10 +2423,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2458,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2504,28 +2516,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2654,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2689,28 +2701,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2747,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2844,10 +2856,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2891,28 +2903,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2937,28 +2949,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3075,10 +3087,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3122,28 +3134,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3168,28 +3180,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3306,10 +3318,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3353,28 +3365,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3399,28 +3411,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3537,10 +3549,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3584,28 +3596,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3630,28 +3642,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3739,10 +3751,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3786,28 +3798,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3832,28 +3844,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3953,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3988,28 +4000,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4046,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4403,10 +4415,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4450,28 +4462,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4496,28 +4508,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4605,10 +4617,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4652,28 +4664,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4698,28 +4710,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4819,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4854,28 +4866,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4912,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5009,10 +5021,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5056,28 +5068,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5102,28 +5114,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5211,10 +5223,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5258,28 +5270,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5304,28 +5316,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5558,10 +5570,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5605,28 +5617,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5651,28 +5663,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5934,10 +5946,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5981,28 +5993,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6027,28 +6039,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6148,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6195,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6241,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6338,10 +6350,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6385,28 +6397,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6431,28 +6443,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6772,10 +6784,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6819,28 +6831,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6865,28 +6877,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7235,10 +7247,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
